--- a/raw_data/survey_data.xlsx
+++ b/raw_data/survey_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hchen234/tfcb-homework01/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5684CE3E-F478-E845-A61C-F8883F9E9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3820" yWindow="-20160" windowWidth="18940" windowHeight="18000" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="combined" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="37">
   <si>
     <t>NA</t>
   </si>
@@ -149,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +163,13 @@
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -177,11 +180,13 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -317,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,7 +339,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -731,7 +735,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -775,7 +779,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -799,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1"/>
@@ -823,7 +827,7 @@
     <col min="29" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" ht="79" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="79" customHeight="1">
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -842,7 +846,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="30">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -859,7 +863,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="30">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -876,7 +880,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="30">
       <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
@@ -899,298 +903,298 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="30">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C8" s="18">
+    <row r="8" spans="3:17" ht="30">
+      <c r="C8" s="17">
         <v>41471</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>41505</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="5">
         <v>8</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16">
         <v>52</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>41590</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="5">
         <v>9</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="O8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
         <v>117</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C9" s="18">
+    <row r="9" spans="3:17" ht="30">
+      <c r="C9" s="17">
         <v>41471</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>41564</v>
       </c>
-      <c r="I9" s="16">
-        <v>3</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
         <v>33</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>41591</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="5">
         <v>11</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="O9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16">
         <v>126</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C10" s="18">
+    <row r="10" spans="3:17" ht="30">
+      <c r="C10" s="17">
         <v>41471</v>
       </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>41564</v>
       </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
         <v>50</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>41591</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="5">
         <v>17</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C11" s="18">
+    <row r="11" spans="3:17" ht="30">
+      <c r="C11" s="17">
         <v>41471</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>41618</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="5">
         <v>9</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
         <v>40</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>41591</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="5">
         <v>14</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="17" t="s">
+      <c r="O11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C12" s="18">
+    <row r="12" spans="3:17" ht="30">
+      <c r="C12" s="17">
         <v>41473</v>
       </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>41618</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>45</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>41591</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="5">
         <v>11</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="O12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
         <v>122</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C13" s="18">
+    <row r="13" spans="3:17" ht="30">
+      <c r="C13" s="17">
         <v>41473</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="5">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>41619</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>8</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="J13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="20">
         <v>41</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>41591</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="5">
         <v>4</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="17">
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="16">
         <v>107</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C14" s="18">
+    <row r="14" spans="3:17" ht="30">
+      <c r="C14" s="17">
         <v>41473</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5"/>
@@ -1199,31 +1203,31 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>41591</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>4</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="21">
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20">
         <v>115</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C15" s="19">
+    <row r="15" spans="3:17" ht="30">
+      <c r="C15" s="18">
         <v>41473</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>6</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="5"/>
@@ -1238,7 +1242,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" ht="30">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1255,7 +1259,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="30">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1272,7 +1276,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="30">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1289,7 +1293,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="30">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1306,7 +1310,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="30">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1323,7 +1327,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="30">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1340,7 +1344,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" ht="30">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1357,7 +1361,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="30">
       <c r="G23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1366,7 +1370,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="30">
       <c r="G24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1375,22 +1379,22 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="30">
       <c r="G25" s="5"/>
       <c r="L25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="30">
       <c r="G26" s="5"/>
       <c r="L26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="30">
       <c r="G27" s="5"/>
       <c r="L27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" ht="30">
       <c r="G28" s="5"/>
       <c r="L28" s="5"/>
       <c r="Q28" s="5"/>
@@ -1410,11 +1414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25"/>
   <cols>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
@@ -1427,12 +1431,12 @@
     <col min="15" max="19" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:17" ht="69" customHeight="1">
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="30">
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1459,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="30">
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1500,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" ht="30">
       <c r="C8" s="6">
         <v>41648</v>
       </c>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" ht="30">
       <c r="C9" s="6">
         <v>41648</v>
       </c>
@@ -1572,7 +1576,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" ht="30">
       <c r="C10" s="6">
         <v>41711</v>
       </c>
@@ -1607,7 +1611,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" ht="30">
       <c r="C11" s="6">
         <v>41711</v>
       </c>
@@ -1648,7 +1652,7 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" ht="30">
       <c r="C12" s="6">
         <v>41711</v>
       </c>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" ht="30">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1718,7 +1722,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" ht="30">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17" ht="30">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1772,7 +1776,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" ht="30">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1797,7 +1801,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="30">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1822,7 +1826,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="30">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1839,7 +1843,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="30">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1856,7 +1860,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="30">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1873,7 +1877,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="30">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1890,7 +1894,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" ht="31">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1909,7 +1913,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="30">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1926,7 +1930,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="30">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1943,7 +1947,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="30">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1960,7 +1964,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="30">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1977,7 +1981,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="30">
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +2000,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" ht="30">
       <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" ht="30">
       <c r="C29" s="6">
         <v>28498</v>
       </c>
@@ -2042,7 +2046,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" ht="30">
       <c r="C30" s="6">
         <v>28498</v>
       </c>
@@ -2063,7 +2067,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" ht="30">
       <c r="C31" s="6">
         <v>28498</v>
       </c>
@@ -2086,7 +2090,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" ht="30">
       <c r="C32" s="6">
         <v>28498</v>
       </c>
@@ -2109,7 +2113,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" ht="30">
       <c r="C33" s="6">
         <v>28498</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:17" ht="30">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2149,7 +2153,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" ht="30">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2166,7 +2170,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" ht="30">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2183,7 +2187,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:17" ht="30">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2198,7 +2202,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:17" ht="30">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2215,7 +2219,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:17" ht="30">
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="L39" s="5"/>
@@ -2225,7 +2229,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:17" ht="30">
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="L40" s="5"/>
@@ -2235,7 +2239,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:17" ht="30">
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="L41" s="5"/>
@@ -2245,34 +2249,34 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:17" ht="30">
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="L42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:17" ht="30">
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="L43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:17" ht="30">
       <c r="G44" s="5"/>
       <c r="L44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:17" ht="30">
       <c r="G45" s="5"/>
       <c r="L45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:17" ht="30">
       <c r="G46" s="5"/>
       <c r="L46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:17" ht="30">
       <c r="G47" s="5"/>
       <c r="L47" s="5"/>
       <c r="Q47" s="5"/>
@@ -2286,4 +2290,1355 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE23F4-9E7D-FE47-9E3E-FD6D686B10C9}">
+  <dimension ref="C3:AB51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1"/>
+    <col min="3" max="3" width="26.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="52.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="1"/>
+    <col min="21" max="21" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="29" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:17" ht="79" customHeight="1">
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="3:17" ht="30">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="3:17" ht="30">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="3:17" ht="30">
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="3:17" ht="30">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="3:17" ht="30">
+      <c r="C8" s="17">
+        <v>41471</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="17">
+        <v>41505</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="17">
+        <v>41590</v>
+      </c>
+      <c r="N8" s="5">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="3:17" ht="30">
+      <c r="C9" s="17">
+        <v>41471</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="17">
+        <v>41564</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="17">
+        <v>41591</v>
+      </c>
+      <c r="N9" s="5">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="3:17" ht="30">
+      <c r="C10" s="17">
+        <v>41471</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="17">
+        <v>41564</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>50</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="17">
+        <v>41591</v>
+      </c>
+      <c r="N10" s="5">
+        <v>17</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="3:17" ht="30">
+      <c r="C11" s="17">
+        <v>41471</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="17">
+        <v>41618</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>40</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="17">
+        <v>41591</v>
+      </c>
+      <c r="N11" s="5">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="3:17" ht="30">
+      <c r="C12" s="17">
+        <v>41473</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="17">
+        <v>41618</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>45</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="17">
+        <v>41591</v>
+      </c>
+      <c r="N12" s="5">
+        <v>11</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="3:17" ht="30">
+      <c r="C13" s="17">
+        <v>41473</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="18">
+        <v>41619</v>
+      </c>
+      <c r="I13" s="19">
+        <v>8</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="20">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="17">
+        <v>41591</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="16">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="3:17" ht="30">
+      <c r="C14" s="17">
+        <v>41473</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="18">
+        <v>41591</v>
+      </c>
+      <c r="N14" s="19">
+        <v>4</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="3:17" ht="30">
+      <c r="C15" s="18">
+        <v>41473</v>
+      </c>
+      <c r="D15" s="19">
+        <v>6</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="3:17" ht="30">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="3:19" ht="30">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="3:19" ht="35">
+      <c r="C18"/>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="3:19" ht="25">
+      <c r="C19"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="3:19" ht="25">
+      <c r="C20"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="3:19" ht="25">
+      <c r="C21"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="3:19" ht="30">
+      <c r="C22"/>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="3:19" ht="30">
+      <c r="C23"/>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="3:19" ht="30">
+      <c r="C24"/>
+      <c r="D24" s="6">
+        <v>41648</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>40</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="7">
+        <v>42074</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>8</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="3:19" ht="30">
+      <c r="C25"/>
+      <c r="D25" s="6">
+        <v>41648</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>36</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>44</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="7">
+        <v>42102</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="3:19" ht="30">
+      <c r="C26"/>
+      <c r="D26" s="6">
+        <v>41711</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>51</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="7">
+        <v>42130</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="3:19" ht="30">
+      <c r="C27"/>
+      <c r="D27" s="6">
+        <v>41711</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>45</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="7">
+        <v>42142</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>182</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="3:19" ht="30">
+      <c r="C28"/>
+      <c r="D28" s="6">
+        <v>41711</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>146</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7">
+        <v>42164</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>29</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="3:19" ht="30">
+      <c r="C29"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <v>157</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="7">
+        <v>42193</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>115</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="3:19" ht="30">
+      <c r="C30"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6">
+        <v>41647</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="7">
+        <v>42193</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>190</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="3:19" ht="30">
+      <c r="C31"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6">
+        <v>41688</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>218</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="3:19" ht="30">
+      <c r="C32"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6">
+        <v>41688</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>7</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="3:19" ht="30">
+      <c r="C33"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6">
+        <v>41688</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>52</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="3:19" ht="30">
+      <c r="C34"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="3:19" ht="30">
+      <c r="C35"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="3:19" ht="30">
+      <c r="C36"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="3:19" ht="30">
+      <c r="C37"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="3:19" ht="31">
+      <c r="C38"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="3:19" ht="30">
+      <c r="C39"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="3:19" ht="30">
+      <c r="C40"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="3:19" ht="30">
+      <c r="C41"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="3:19" ht="30">
+      <c r="C42"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="3:19" ht="30">
+      <c r="C43"/>
+      <c r="D43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="3:19" ht="30">
+      <c r="C44"/>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="3:19" ht="30">
+      <c r="C45"/>
+      <c r="D45" s="6">
+        <v>28498</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="4">
+        <v>37</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="3:19" ht="30">
+      <c r="C46"/>
+      <c r="D46" s="6">
+        <v>28498</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="3:19" ht="30">
+      <c r="C47"/>
+      <c r="D47" s="6">
+        <v>28498</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="4">
+        <v>48</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="3:19" ht="30">
+      <c r="C48"/>
+      <c r="D48" s="6">
+        <v>28498</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="4">
+        <v>52</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="3:19" ht="30">
+      <c r="C49"/>
+      <c r="D49" s="6">
+        <v>28498</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="4">
+        <v>35</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="3:19" ht="30">
+      <c r="C50"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="3:19" ht="30">
+      <c r="C51"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>